--- a/Sprint 1/Guideline Presentee S1 Presentation.xlsx
+++ b/Sprint 1/Guideline Presentee S1 Presentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surmed/Desktop/Capstone Project/Presentations/Sprint 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8F27D-3E33-654E-93A8-BD58FE2321F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BC17D-7C15-9F44-A6E9-3891E665D0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{83321F5B-5862-7049-AC56-E163DF613848}"/>
   </bookViews>
@@ -120,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,12 +161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +558,7 @@
   <dimension ref="L4:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +583,7 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -585,7 +594,7 @@
       <c r="L6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -596,7 +605,7 @@
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -607,7 +616,7 @@
       <c r="L8" s="1">
         <v>4</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -629,7 +638,7 @@
       <c r="L10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -640,7 +649,7 @@
       <c r="L11" s="1">
         <v>7</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -651,7 +660,7 @@
       <c r="L12" s="1">
         <v>8</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -662,7 +671,7 @@
       <c r="L13" s="1">
         <v>9</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -673,7 +682,7 @@
       <c r="L14" s="1">
         <v>10</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -684,7 +693,7 @@
       <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -695,7 +704,7 @@
       <c r="L16" s="1">
         <v>12</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
